--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_12_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_12_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>51360.64230465526</v>
+        <v>10220767.81862638</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>51360.64230465526</v>
+        <v>10220767.81862638</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1466.219751469548</v>
+        <v>192497.8828753076</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1466.219751469548</v>
+        <v>192497.8828753076</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1265709941.590198</v>
+        <v>51733991.97364681</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10449.62976628383</v>
+        <v>1148110.585272966</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20207.06467615648</v>
+        <v>2187727.02442917</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>29961.17352542307</v>
+        <v>3226681.57752477</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>40147.34067233231</v>
+        <v>4282120.232162798</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>50250.83145560518</v>
+        <v>5321106.29043719</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>60354.32223887803</v>
+        <v>6360092.34871158</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>70457.81302215089</v>
+        <v>7399078.406985966</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>80561.30380542375</v>
+        <v>8438064.465260353</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>90850.8760551857</v>
+        <v>9474164.427545082</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>101041.1735207109</v>
+        <v>10512170.8508408</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>111234.7970468421</v>
+        <v>11550839.16019714</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>121045.0242788558</v>
+        <v>12573025.87080818</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>130937.9278745059</v>
+        <v>13611665.17778286</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>140942.4580379486</v>
+        <v>14635582.96885874</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>151091.9814496932</v>
+        <v>15637957.56503652</v>
       </c>
     </row>
   </sheetData>
@@ -27037,28 +27037,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>350</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>329</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27147,19 +27147,19 @@
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>174</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
